--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/100.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/100.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2511778767443903</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.535029509668979</v>
+        <v>-2.519502149080327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1232323000114842</v>
+        <v>0.1207401641262917</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2937857146980817</v>
+        <v>-0.2863989653819859</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2485812447947305</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.645034193006582</v>
+        <v>-2.628172935897882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06563932026819534</v>
+        <v>0.06368513441989457</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3171389674900881</v>
+        <v>-0.3089471228806849</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2619816413647905</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.756636258596588</v>
+        <v>-2.743380852528823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06538559326666815</v>
+        <v>0.06548684009900833</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3288360262287623</v>
+        <v>-0.3205124387531816</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.294811289449344</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.915030218665352</v>
+        <v>-2.902283486441994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02540163338177247</v>
+        <v>0.02625308264651276</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3354359778718531</v>
+        <v>-0.3279260245790542</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3394812014517887</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.993442230788759</v>
+        <v>-2.980080393562901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07233258977482854</v>
+        <v>0.07478752049873946</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3267128923530024</v>
+        <v>-0.3186863362469979</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3783639584997229</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.896230633645947</v>
+        <v>-2.879126018187224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1238105048130414</v>
+        <v>0.1286856007822886</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3337751638690681</v>
+        <v>-0.3245458441885165</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3922786352542407</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.716019810969905</v>
+        <v>-2.697572150180983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.165142999314227</v>
+        <v>0.1692325174518227</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3759517885868731</v>
+        <v>-0.3653940616723642</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3727482986020421</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.506765785508474</v>
+        <v>-2.487778954841307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1766772092322095</v>
+        <v>0.1848336784423613</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3794240669995998</v>
+        <v>-0.3705393525014108</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3192422302211606</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.098311057100451</v>
+        <v>-2.077540818374473</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2078404962899748</v>
+        <v>0.2195735403485772</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3422719688168453</v>
+        <v>-0.3327163415742335</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2340961980386408</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.734360410712704</v>
+        <v>-1.712406925873834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1993357623733999</v>
+        <v>0.209905077780767</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2949354151737518</v>
+        <v>-0.2882116496332812</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1223442198389571</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.315576065723275</v>
+        <v>-1.291994092677488</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1317766787720478</v>
+        <v>0.1399496158404717</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2508015550042623</v>
+        <v>-0.2434965350588508</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.00776059154086095</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8150098968714068</v>
+        <v>-0.7903556832758968</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06630230404382048</v>
+        <v>0.07156896908753997</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2135640679267631</v>
+        <v>-0.205914442798989</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1421483707331273</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4070010204780865</v>
+        <v>-0.3845248336192438</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08565943256795815</v>
+        <v>-0.08331306772450837</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1685549715861402</v>
+        <v>-0.159663547960507</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2678621667616677</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03458947845630521</v>
+        <v>0.05694429110047503</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.288190302409595</v>
+        <v>-0.2917107645557848</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1038606854034737</v>
+        <v>-0.09348349500928224</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3816646001014831</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5181223925686306</v>
+        <v>0.5348092123637807</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4074511419375265</v>
+        <v>-0.4109533064634139</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03097760421478777</v>
+        <v>-0.02244603378843593</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4917890958126085</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9241917212098921</v>
+        <v>0.9374715241047276</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5529489392171293</v>
+        <v>-0.5622050954074578</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01705852844453578</v>
+        <v>0.02513326828400332</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6030029244812151</v>
       </c>
       <c r="E18" t="n">
-        <v>1.359795238781325</v>
+        <v>1.372617601168599</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7658600490563413</v>
+        <v>-0.7768538692547251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08198275472233631</v>
+        <v>0.08942195721663238</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7159801726849576</v>
       </c>
       <c r="E19" t="n">
-        <v>1.691752496070253</v>
+        <v>1.703530674258935</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9333277990330858</v>
+        <v>-0.9484074778450048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1887457096630234</v>
+        <v>0.196946093161901</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8274970521471373</v>
       </c>
       <c r="E20" t="n">
-        <v>2.02397262917086</v>
+        <v>2.028404922728788</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.093693632649776</v>
+        <v>-1.110830573904366</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2764455938519499</v>
+        <v>0.2866123616126632</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9327500669567086</v>
       </c>
       <c r="E21" t="n">
-        <v>2.261574547846187</v>
+        <v>2.26219666693647</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.342421114389664</v>
+        <v>-1.36132011647938</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3457813763846691</v>
+        <v>0.3557901746901047</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.029648880918501</v>
       </c>
       <c r="E22" t="n">
-        <v>2.517674140805929</v>
+        <v>2.517775387638269</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.619689834197978</v>
+        <v>-1.636347987721321</v>
       </c>
       <c r="G22" t="n">
-        <v>0.462484818514996</v>
+        <v>0.4721099767147571</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.113633018603083</v>
       </c>
       <c r="E23" t="n">
-        <v>2.700108734269394</v>
+        <v>2.701095585924372</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.906872814606831</v>
+        <v>-1.921193142176199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5910060836779932</v>
+        <v>0.6005080379010512</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.182809677092424</v>
       </c>
       <c r="E24" t="n">
-        <v>2.823881157043231</v>
+        <v>2.824706989639548</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.194629120451828</v>
+        <v>-2.207445993553011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7034907044872538</v>
+        <v>0.7110811673093834</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.23477629806307</v>
       </c>
       <c r="E25" t="n">
-        <v>2.955874090698278</v>
+        <v>2.953682035786045</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.445737732513741</v>
+        <v>-2.457016995588842</v>
       </c>
       <c r="G25" t="n">
-        <v>0.806058015092591</v>
+        <v>0.8132977735255905</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.268560884218244</v>
       </c>
       <c r="E26" t="n">
-        <v>3.015569467014318</v>
+        <v>3.013510374809616</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.68128909787384</v>
+        <v>-2.687905517375203</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9112736012763683</v>
+        <v>0.9166299246595697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.283987610258449</v>
       </c>
       <c r="E27" t="n">
-        <v>3.007602683134634</v>
+        <v>3.006958606899989</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.897707251604354</v>
+        <v>-2.901264918911825</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9669233737435378</v>
+        <v>0.9709006664766119</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.282564958747976</v>
       </c>
       <c r="E28" t="n">
-        <v>3.018627609287532</v>
+        <v>3.015832952746673</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.122994261895461</v>
+        <v>-3.124041800657775</v>
       </c>
       <c r="G28" t="n">
-        <v>1.017831012948991</v>
+        <v>1.019865098405946</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.265216111037199</v>
       </c>
       <c r="E29" t="n">
-        <v>3.012868738257677</v>
+        <v>3.009683732483698</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.276087706322945</v>
+        <v>-3.277390191928141</v>
       </c>
       <c r="G29" t="n">
-        <v>1.094555984480513</v>
+        <v>1.097326244194303</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.232865603957646</v>
       </c>
       <c r="E30" t="n">
-        <v>2.90909927399847</v>
+        <v>2.907374418324626</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.341777383050065</v>
+        <v>-3.340595966699204</v>
       </c>
       <c r="G30" t="n">
-        <v>1.09065920127677</v>
+        <v>1.092709754591997</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.186967005101632</v>
       </c>
       <c r="E31" t="n">
-        <v>2.850272424726119</v>
+        <v>2.847520462632632</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.419395278452346</v>
+        <v>-3.41707636003935</v>
       </c>
       <c r="G31" t="n">
-        <v>1.139902366955378</v>
+        <v>1.138841714898513</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.130340122224733</v>
       </c>
       <c r="E32" t="n">
-        <v>2.777754076102129</v>
+        <v>2.773554162322041</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.463153732445297</v>
+        <v>-3.459085866491725</v>
       </c>
       <c r="G32" t="n">
-        <v>1.090992827886951</v>
+        <v>1.092105323201339</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.066609370589038</v>
       </c>
       <c r="E33" t="n">
-        <v>2.600857562383536</v>
+        <v>2.596547862881634</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.430003323822687</v>
+        <v>-3.426575569619362</v>
       </c>
       <c r="G33" t="n">
-        <v>1.060624267470988</v>
+        <v>1.061485475466557</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9982764852525048</v>
       </c>
       <c r="E34" t="n">
-        <v>2.550801372442823</v>
+        <v>2.543814121169997</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.26012394749008</v>
+        <v>-3.254674001282998</v>
       </c>
       <c r="G34" t="n">
-        <v>1.008462021433464</v>
+        <v>1.009395809989565</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9280815047314431</v>
       </c>
       <c r="E35" t="n">
-        <v>2.431258139641557</v>
+        <v>2.42308764225584</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.095925372340705</v>
+        <v>-3.090844733103394</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9792730476063325</v>
+        <v>0.9785014979502462</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8570398029187349</v>
       </c>
       <c r="E36" t="n">
-        <v>2.30496674447275</v>
+        <v>2.298718717060143</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.00124067656166</v>
+        <v>-3.002136040115126</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8855880118164773</v>
+        <v>0.8867035567342495</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7867628959049726</v>
       </c>
       <c r="E37" t="n">
-        <v>2.177457947633155</v>
+        <v>2.169293549454205</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.812461688218661</v>
+        <v>-2.81367543036539</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7779235941155566</v>
+        <v>0.7792282144431207</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7179738148515701</v>
       </c>
       <c r="E38" t="n">
-        <v>2.041429778780742</v>
+        <v>2.035630652986222</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.633715895008168</v>
+        <v>-2.638829469962024</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7161801041669972</v>
+        <v>0.7158684347011789</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6520299917127874</v>
       </c>
       <c r="E39" t="n">
-        <v>1.879059135899582</v>
+        <v>1.874737237984145</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.431985851015102</v>
+        <v>-2.437400116862595</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6415709474631143</v>
+        <v>0.6437349460242163</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5893496045577986</v>
       </c>
       <c r="E40" t="n">
-        <v>1.783112514240345</v>
+        <v>1.778948585780186</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.282331444323461</v>
+        <v>-2.291897440217578</v>
       </c>
       <c r="G40" t="n">
-        <v>0.554027812888112</v>
+        <v>0.5580569488787097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5302046117785582</v>
       </c>
       <c r="E41" t="n">
-        <v>1.67916251346082</v>
+        <v>1.674480152425425</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.194340018051049</v>
+        <v>-2.205012410052787</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4790514839368267</v>
+        <v>0.4827811488751411</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4751328394160448</v>
       </c>
       <c r="E42" t="n">
-        <v>1.480053908536416</v>
+        <v>1.476458426146986</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.113562123622536</v>
+        <v>-2.124763316851014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4473380484286347</v>
+        <v>0.4516111526899316</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4230121442243197</v>
       </c>
       <c r="E43" t="n">
-        <v>1.339356186982821</v>
+        <v>1.336532864170154</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.010896615788243</v>
+        <v>-2.022277735616361</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4165705998900789</v>
+        <v>0.4216579482548345</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3742184374146859</v>
       </c>
       <c r="E44" t="n">
-        <v>1.168214274849346</v>
+        <v>1.165275677028774</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.953190190799079</v>
+        <v>-1.965183670986653</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3990317209095118</v>
+        <v>0.4024606949541893</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3275433948795552</v>
       </c>
       <c r="E45" t="n">
-        <v>1.088002996729532</v>
+        <v>1.085053420336778</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.906946005088041</v>
+        <v>-1.918777856296277</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3489669920793242</v>
+        <v>0.3563031179792499</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2834246883795994</v>
       </c>
       <c r="E46" t="n">
-        <v>0.964252531100058</v>
+        <v>0.9629680381548267</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.885013867472858</v>
+        <v>-1.895622827724213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3103480346689907</v>
+        <v>0.3159349080680029</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2411326428514816</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8217878693459234</v>
+        <v>0.8230924896734876</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.871763340770506</v>
+        <v>-1.882691289535801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2746597461104315</v>
+        <v>0.280737605654226</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2004541056417777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7310615587589731</v>
+        <v>0.7331029632640488</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.925611407558562</v>
+        <v>-1.936260622574583</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2542359423288461</v>
+        <v>0.2594745510214351</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1610520284780609</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7098192414291917</v>
+        <v>0.7112427962887217</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.873099676973261</v>
+        <v>-1.885713446489088</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2412617096930614</v>
+        <v>0.2461935282852462</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1225098601317339</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6607346551265383</v>
+        <v>0.6611054868980011</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.870336736307592</v>
+        <v>-1.8825339300012</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1911506268914409</v>
+        <v>0.1971565157953791</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0850429896582523</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5894483462695788</v>
+        <v>0.5895495931019189</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.935554944351585</v>
+        <v>-1.945349660499482</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1744430697932814</v>
+        <v>0.1780556299616602</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04834216294766454</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4768307627527871</v>
+        <v>0.4774833778769075</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.893019686275853</v>
+        <v>-1.901232268188265</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1110210781423113</v>
+        <v>0.1163206789025752</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01287218575749199</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4305530314045282</v>
+        <v>0.4341466840319277</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.900069149457707</v>
+        <v>-1.909059380232973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1174648900921546</v>
+        <v>0.1226492158445131</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02144642929062022</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3181178141700842</v>
+        <v>0.3222847922336269</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.855117995581375</v>
+        <v>-1.862671863162899</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08394791914281854</v>
+        <v>0.08900050202899946</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05392469988215351</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2970871393151344</v>
+        <v>0.2991267140581799</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.868846700094297</v>
+        <v>-1.876866547072857</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1013849413703688</v>
+        <v>0.1049560269327287</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08455528912338259</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2608743189745719</v>
+        <v>0.263038317535674</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.822370744526095</v>
+        <v>-1.830207005380954</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0724057802560383</v>
+        <v>0.07521202528975611</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1130794413814635</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2505428726311366</v>
+        <v>0.2528081180245789</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.829920952583559</v>
+        <v>-1.836140313724359</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05078409226531964</v>
+        <v>0.05225522093763596</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1395974794450667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1911701443530969</v>
+        <v>0.1927839944637723</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.831482959436711</v>
+        <v>-1.836111037531875</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02501128414865371</v>
+        <v>0.02580845047316342</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1644902094181999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.16334190355579</v>
+        <v>0.1641671262314301</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.867403627773111</v>
+        <v>-1.872742263456687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0005296781046634122</v>
+        <v>0.002743690161258863</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1877251494755432</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1599153691938194</v>
+        <v>0.1593969366185836</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.804755625460934</v>
+        <v>-1.809432497210238</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.002157022476411783</v>
+        <v>-0.00174959546434408</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2093280465608584</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1315119731983391</v>
+        <v>0.1290637516018724</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.830448533968946</v>
+        <v>-1.835284595014881</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02073398644880413</v>
+        <v>-0.02134939641164292</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2293346439117652</v>
       </c>
       <c r="E62" t="n">
-        <v>0.149923038746656</v>
+        <v>0.1484854557115608</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.777581219629101</v>
+        <v>-1.782230644947951</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0418329724195497</v>
+        <v>-0.0435145237253441</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2478310983532636</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09604264616273253</v>
+        <v>0.09632930888080413</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.812358286696599</v>
+        <v>-1.819327240349122</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.07320668211079305</v>
+        <v>-0.07279498565398812</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2643187041387048</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1076774929923785</v>
+        <v>0.1039453883713571</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.779612255482672</v>
+        <v>-1.785712682091506</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04774798314265236</v>
+        <v>-0.04849391613031524</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2787185176410051</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1059105527918394</v>
+        <v>0.1005902147285661</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.790615224491207</v>
+        <v>-1.798943081411525</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.08909145621601948</v>
+        <v>-0.08930553837355804</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2903061576183744</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1015868251143724</v>
+        <v>0.09756317840986545</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.812297904549601</v>
+        <v>-1.818953968894952</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.08013416115729749</v>
+        <v>-0.08082276160134605</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2985830478471416</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1126696937315613</v>
+        <v>0.1072249318502314</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.772607316510221</v>
+        <v>-1.779533575715372</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09748762425213324</v>
+        <v>-0.09848240487590933</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3028630408554992</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02173722995587013</v>
+        <v>0.01605215932790149</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.809330640457221</v>
+        <v>-1.813811727669289</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1397209715928758</v>
+        <v>-0.1396459513496358</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.302942656105834</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.006333759270782484</v>
+        <v>-0.01048365955537627</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.828491908437938</v>
+        <v>-1.833545711165473</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1456463509674832</v>
+        <v>-0.1441898603914088</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2981927695021708</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06838030378950112</v>
+        <v>0.06258605736039456</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.771674137874796</v>
+        <v>-1.776640112024879</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1378790111490966</v>
+        <v>-0.1368799610805833</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2888771897815839</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07618057932443204</v>
+        <v>0.07043756623217232</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.757796002796071</v>
+        <v>-1.760726671647845</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1799726866548639</v>
+        <v>-0.1795060973371516</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2748833392909087</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1294297040079212</v>
+        <v>0.1241612092021715</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.714920408982713</v>
+        <v>-1.716945345629516</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1749987835359834</v>
+        <v>-0.1749146144825922</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2565846510529696</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1648484076273577</v>
+        <v>0.1586272167245275</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.669878986846222</v>
+        <v>-1.674016078796604</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1546579289664357</v>
+        <v>-0.1546609785698194</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2346565596371241</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2644545533470831</v>
+        <v>0.2566372000332032</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.592258651761234</v>
+        <v>-1.59705140843912</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1838627607311629</v>
+        <v>-0.1834961984044374</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2092820644871136</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3577852252237476</v>
+        <v>0.3525807720890564</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.529430722849417</v>
+        <v>-1.536689998744072</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1590621661732334</v>
+        <v>-0.1603009150677087</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1808983208661777</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4710072401311966</v>
+        <v>0.4624317554161189</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.527571684626688</v>
+        <v>-1.533933157285171</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1750152513942556</v>
+        <v>-0.1753226514153366</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1491384117161375</v>
       </c>
       <c r="E77" t="n">
-        <v>0.587811319173187</v>
+        <v>0.5826428513584239</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.44268170499554</v>
+        <v>-1.452319061608836</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.199929901118737</v>
+        <v>-0.1993675542547753</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1148621529082121</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7698079895907469</v>
+        <v>0.7624127013851767</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.403450387225752</v>
+        <v>-1.410994496076448</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2033600950047681</v>
+        <v>-0.2017005008433367</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.07848557561036779</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9699571191896826</v>
+        <v>0.9635541719251816</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.354215760436618</v>
+        <v>-1.359018275845332</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1849234127880278</v>
+        <v>-0.1824154189652398</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04101287210746361</v>
       </c>
       <c r="E80" t="n">
-        <v>1.149130466794576</v>
+        <v>1.141082563464885</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.331846309696206</v>
+        <v>-1.335733944089799</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1949462392690287</v>
+        <v>-0.1911360648013836</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.003130307549595893</v>
       </c>
       <c r="E81" t="n">
-        <v>1.311835346206595</v>
+        <v>1.307138956995635</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.279683453738006</v>
+        <v>-1.28443900525461</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1250901943990433</v>
+        <v>-0.122779204954845</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03413938927080036</v>
       </c>
       <c r="E82" t="n">
-        <v>1.54470184074765</v>
+        <v>1.539552890394543</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.304643847513243</v>
+        <v>-1.307678202880065</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.09084680792370038</v>
+        <v>-0.08947936576643124</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.06948235165792109</v>
       </c>
       <c r="E83" t="n">
-        <v>1.756749302908587</v>
+        <v>1.746501415697866</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.226941173136894</v>
+        <v>-1.227654780328689</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07673568314645732</v>
+        <v>-0.07421000162404361</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1021323541699766</v>
       </c>
       <c r="E84" t="n">
-        <v>1.971303539050958</v>
+        <v>1.962017496747469</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.134728485860709</v>
+        <v>-1.138799706378002</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09629522932909079</v>
+        <v>-0.09353960771154306</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1307246465250831</v>
       </c>
       <c r="E85" t="n">
-        <v>2.085695991737087</v>
+        <v>2.075187668397394</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.063722740515053</v>
+        <v>-1.065276818399407</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06536005260442929</v>
+        <v>-0.06262699805192123</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1539061932183406</v>
       </c>
       <c r="E86" t="n">
-        <v>2.193390295551168</v>
+        <v>2.18306311865247</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.008167505752779</v>
+        <v>-1.006801283436864</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07046630851016403</v>
+        <v>-0.0674301233813122</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1705322741869512</v>
       </c>
       <c r="E87" t="n">
-        <v>2.32460009105727</v>
+        <v>2.313887444290867</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8643073454902453</v>
+        <v>-0.8642774593770847</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06807968890204888</v>
+        <v>-0.0657815077920622</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1798464812268789</v>
       </c>
       <c r="E88" t="n">
-        <v>2.418847473711088</v>
+        <v>2.405940332349745</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7867663000932344</v>
+        <v>-0.7873457247361452</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05299391088336241</v>
+        <v>-0.05045542102673699</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1818495612114815</v>
       </c>
       <c r="E89" t="n">
-        <v>2.45438877138655</v>
+        <v>2.440060514848385</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7371126577991751</v>
+        <v>-0.7358220656471762</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0531524902593169</v>
+        <v>-0.04884584036079887</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1767304054701538</v>
       </c>
       <c r="E90" t="n">
-        <v>2.458872908202002</v>
+        <v>2.44714169390543</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6570166546872667</v>
+        <v>-0.6542006509227208</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05721395204578222</v>
+        <v>-0.05399113118984548</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1647027576685849</v>
       </c>
       <c r="E91" t="n">
-        <v>2.40240401226596</v>
+        <v>2.390933844019036</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5140854036154198</v>
+        <v>-0.5106545998087119</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0483816907257936</v>
+        <v>-0.04486976746907828</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1462187164197144</v>
       </c>
       <c r="E92" t="n">
-        <v>2.351337793684552</v>
+        <v>2.337545047500571</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4357557307833737</v>
+        <v>-0.4319754424288892</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04583771158307745</v>
+        <v>-0.04155057914621535</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1221526100470018</v>
       </c>
       <c r="E93" t="n">
-        <v>2.250195867700775</v>
+        <v>2.239725969363718</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3505906769270121</v>
+        <v>-0.3453337706141206</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04355233880730248</v>
+        <v>-0.03996783499005414</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09472284594013544</v>
       </c>
       <c r="E94" t="n">
-        <v>2.14379642548343</v>
+        <v>2.133360682704271</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2679482549896804</v>
+        <v>-0.2615489672492399</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08882492088028057</v>
+        <v>-0.08717752513238407</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06608208502295744</v>
       </c>
       <c r="E95" t="n">
-        <v>1.985513470977834</v>
+        <v>1.979001957832872</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1925693783917415</v>
+        <v>-0.1863750239986882</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0941720954533308</v>
+        <v>-0.09291870846261353</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03789392416489851</v>
       </c>
       <c r="E96" t="n">
-        <v>1.809214679522455</v>
+        <v>1.805620416974378</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.08355947567791459</v>
+        <v>-0.07729742008974227</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08010732464752059</v>
+        <v>-0.08058001317200032</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0116130282488076</v>
       </c>
       <c r="E97" t="n">
-        <v>1.672349089580867</v>
+        <v>1.670739508914929</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0174465140011321</v>
+        <v>-0.009949978963221719</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08777646723695066</v>
+        <v>-0.08736538070082248</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0124701183706155</v>
       </c>
       <c r="E98" t="n">
-        <v>1.509166642278954</v>
+        <v>1.505504068615082</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02278324391649305</v>
+        <v>0.03011449045100471</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1102117894104512</v>
+        <v>-0.1097854548574043</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03283862383378365</v>
       </c>
       <c r="E99" t="n">
-        <v>1.416091527165847</v>
+        <v>1.414530130233372</v>
       </c>
       <c r="F99" t="n">
-        <v>0.06757032913077969</v>
+        <v>0.07457465818255439</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09948877399254362</v>
+        <v>-0.1003713292117981</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05115821852883787</v>
       </c>
       <c r="E100" t="n">
-        <v>1.27036196002908</v>
+        <v>1.270601048934366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1128441310451113</v>
+        <v>0.1179851524294207</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1321549055978161</v>
+        <v>-0.1326879762692939</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06694475954375521</v>
       </c>
       <c r="E101" t="n">
-        <v>1.18645517252885</v>
+        <v>1.188943648889982</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452028626293028</v>
+        <v>0.1490343843206341</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1733074734993611</v>
+        <v>-0.1747548152652842</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08519301640520265</v>
       </c>
       <c r="E102" t="n">
-        <v>1.111953361864075</v>
+        <v>1.111649011446378</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1642726425085075</v>
+        <v>0.1676028094035519</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1815139562050062</v>
+        <v>-0.1811364153060991</v>
       </c>
     </row>
   </sheetData>
